--- a/library/Library_J.PLAGGENBERG_11.15.19.xlsx
+++ b/library/Library_J.PLAGGENBERG_11.15.19.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">CTCACA</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -360,8 +360,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -455,7 +455,8 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -507,7 +508,8 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -545,7 +547,8 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -583,7 +586,8 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -621,7 +625,8 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -659,7 +664,8 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -697,7 +703,8 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -735,7 +742,8 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -773,7 +781,8 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -811,7 +820,8 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -849,7 +859,8 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -887,7 +898,8 @@
       <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -925,7 +937,8 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -963,7 +976,8 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1001,7 +1015,8 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1039,7 +1054,8 @@
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1077,7 +1093,8 @@
       <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="b">
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1115,7 +1132,8 @@
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="b">
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1153,7 +1171,8 @@
       <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="b">
+      <c r="L20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1191,7 +1210,8 @@
       <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="b">
+      <c r="L21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1229,7 +1249,8 @@
       <c r="K22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="b">
+      <c r="L22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1267,7 +1288,8 @@
       <c r="K23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="b">
+      <c r="L23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1305,7 +1327,8 @@
       <c r="K24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="b">
+      <c r="L24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1343,7 +1366,8 @@
       <c r="K25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="b">
+      <c r="L25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1381,7 +1405,8 @@
       <c r="K26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="b">
+      <c r="L26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1419,7 +1444,8 @@
       <c r="K27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="b">
+      <c r="L27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1457,7 +1483,8 @@
       <c r="K28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="b">
+      <c r="L28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1495,7 +1522,8 @@
       <c r="K29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="b">
+      <c r="L29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1533,7 +1561,8 @@
       <c r="K30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="8" t="b">
+      <c r="L30" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1571,7 +1600,8 @@
       <c r="K31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="8" t="b">
+      <c r="L31" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1609,7 +1639,8 @@
       <c r="K32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="8" t="b">
+      <c r="L32" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1647,7 +1678,8 @@
       <c r="K33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="8" t="b">
+      <c r="L33" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1685,7 +1717,8 @@
       <c r="K34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="8" t="b">
+      <c r="L34" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1723,7 +1756,8 @@
       <c r="K35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="8" t="b">
+      <c r="L35" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1761,7 +1795,8 @@
       <c r="K36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="8" t="b">
+      <c r="L36" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1799,7 +1834,8 @@
       <c r="K37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="8" t="b">
+      <c r="L37" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1837,7 +1873,8 @@
       <c r="K38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="8" t="b">
+      <c r="L38" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1875,7 +1912,8 @@
       <c r="K39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="8" t="b">
+      <c r="L39" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1913,7 +1951,8 @@
       <c r="K40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="8" t="b">
+      <c r="L40" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1951,7 +1990,8 @@
       <c r="K41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="8" t="b">
+      <c r="L41" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/library/Library_J.PLAGGENBERG_11.15.19.xlsx
+++ b/library/Library_J.PLAGGENBERG_11.15.19.xlsx
@@ -360,8 +360,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -455,8 +455,7 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L2" s="8" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -508,8 +507,7 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -547,8 +545,7 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -586,8 +583,7 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -625,8 +621,7 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -664,8 +659,7 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L7" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -703,8 +697,7 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -742,8 +735,7 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L9" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -781,8 +773,7 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L10" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -820,8 +811,7 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L11" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -859,8 +849,7 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L12" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -898,8 +887,7 @@
       <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L13" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -937,8 +925,7 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L14" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -976,8 +963,7 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L15" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1015,8 +1001,7 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L16" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1054,8 +1039,7 @@
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L17" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1093,8 +1077,7 @@
       <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L18" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1132,8 +1115,7 @@
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L19" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1171,8 +1153,7 @@
       <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L20" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1210,8 +1191,7 @@
       <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L21" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1249,8 +1229,7 @@
       <c r="K22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L22" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1288,8 +1267,7 @@
       <c r="K23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L23" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1327,8 +1305,7 @@
       <c r="K24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L24" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1366,8 +1343,7 @@
       <c r="K25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L25" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1405,8 +1381,7 @@
       <c r="K26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L26" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1444,8 +1419,7 @@
       <c r="K27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L27" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1483,8 +1457,7 @@
       <c r="K28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L28" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1522,8 +1495,7 @@
       <c r="K29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L29" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1561,8 +1533,7 @@
       <c r="K30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L30" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1600,8 +1571,7 @@
       <c r="K31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L31" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1639,8 +1609,7 @@
       <c r="K32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L32" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1678,8 +1647,7 @@
       <c r="K33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L33" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1717,8 +1685,7 @@
       <c r="K34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L34" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1756,8 +1723,7 @@
       <c r="K35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L35" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1795,8 +1761,7 @@
       <c r="K36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L36" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1834,8 +1799,7 @@
       <c r="K37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L37" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1873,8 +1837,7 @@
       <c r="K38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L38" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1912,8 +1875,7 @@
       <c r="K39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L39" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1951,8 +1913,7 @@
       <c r="K40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L40" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1990,8 +1951,7 @@
       <c r="K41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="8" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="L41" s="8" t="b">
         <v>0</v>
       </c>
     </row>

--- a/library/Library_J.PLAGGENBERG_11.15.19.xlsx
+++ b/library/Library_J.PLAGGENBERG_11.15.19.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">CTCACA</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">GCTTAGA</t>
@@ -360,8 +360,8 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -455,7 +455,8 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8" t="b">
+      <c r="L2" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -507,7 +508,8 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -545,7 +547,8 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -583,7 +586,8 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -621,7 +625,8 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -659,7 +664,8 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -697,7 +703,8 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -735,7 +742,8 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -773,7 +781,8 @@
       <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -811,7 +820,8 @@
       <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -849,7 +859,8 @@
       <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -887,7 +898,8 @@
       <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="8" t="b">
+      <c r="L13" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -925,7 +937,8 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="b">
+      <c r="L14" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -963,7 +976,8 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="b">
+      <c r="L15" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1001,7 +1015,8 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="8" t="b">
+      <c r="L16" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1039,7 +1054,8 @@
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="8" t="b">
+      <c r="L17" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1077,7 +1093,8 @@
       <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="8" t="b">
+      <c r="L18" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1115,7 +1132,8 @@
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="8" t="b">
+      <c r="L19" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1153,7 +1171,8 @@
       <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="8" t="b">
+      <c r="L20" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1191,7 +1210,8 @@
       <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="8" t="b">
+      <c r="L21" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1229,7 +1249,8 @@
       <c r="K22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="8" t="b">
+      <c r="L22" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1267,7 +1288,8 @@
       <c r="K23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="8" t="b">
+      <c r="L23" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1305,7 +1327,8 @@
       <c r="K24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="8" t="b">
+      <c r="L24" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1343,7 +1366,8 @@
       <c r="K25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="b">
+      <c r="L25" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1381,7 +1405,8 @@
       <c r="K26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="b">
+      <c r="L26" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1419,7 +1444,8 @@
       <c r="K27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="8" t="b">
+      <c r="L27" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1457,7 +1483,8 @@
       <c r="K28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="b">
+      <c r="L28" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1495,7 +1522,8 @@
       <c r="K29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="8" t="b">
+      <c r="L29" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1533,7 +1561,8 @@
       <c r="K30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="8" t="b">
+      <c r="L30" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1571,7 +1600,8 @@
       <c r="K31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="8" t="b">
+      <c r="L31" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1609,7 +1639,8 @@
       <c r="K32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="8" t="b">
+      <c r="L32" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1647,7 +1678,8 @@
       <c r="K33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="8" t="b">
+      <c r="L33" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1685,7 +1717,8 @@
       <c r="K34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="8" t="b">
+      <c r="L34" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1723,7 +1756,8 @@
       <c r="K35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="8" t="b">
+      <c r="L35" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1761,7 +1795,8 @@
       <c r="K36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="8" t="b">
+      <c r="L36" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1799,7 +1834,8 @@
       <c r="K37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="8" t="b">
+      <c r="L37" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1837,7 +1873,8 @@
       <c r="K38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="8" t="b">
+      <c r="L38" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1875,7 +1912,8 @@
       <c r="K39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="8" t="b">
+      <c r="L39" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1913,7 +1951,8 @@
       <c r="K40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="8" t="b">
+      <c r="L40" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1951,7 +1990,8 @@
       <c r="K41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="8" t="b">
+      <c r="L41" s="8" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
